--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,28 +22,37 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009234</t>
+  </si>
+  <si>
     <t>169108</t>
   </si>
   <si>
     <t>004316</t>
   </si>
   <si>
+    <t>003413</t>
+  </si>
+  <si>
     <t>004317</t>
   </si>
   <si>
-    <t>003413</t>
-  </si>
-  <si>
-    <t>009234</t>
+    <t>鹏华优质企业混合</t>
   </si>
   <si>
     <t>东方红均衡优选两年定期开放混合</t>
@@ -52,13 +61,28 @@
     <t>前海开源沪港深裕鑫灵活配置混合A</t>
   </si>
   <si>
+    <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+  </si>
+  <si>
     <t>前海开源沪港深裕鑫灵活配置混合C</t>
   </si>
   <si>
-    <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-  </si>
-  <si>
-    <t>鹏华优质企业混合</t>
+    <t>11.81</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>92.96</t>
   </si>
   <si>
     <t>23.80</t>
@@ -70,7 +94,7 @@
     <t>94.13</t>
   </si>
   <si>
-    <t>92.96</t>
+    <t>6.95</t>
   </si>
   <si>
     <t>0.99</t>
@@ -82,7 +106,16 @@
     <t>6.26</t>
   </si>
   <si>
-    <t>6.95</t>
+    <t>0.8208</t>
+  </si>
+  <si>
+    <t>0.2198</t>
+  </si>
+  <si>
+    <t>0.0200</t>
+  </si>
+  <si>
+    <t>0.0097</t>
   </si>
 </sst>
 </file>
@@ -440,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,105 +495,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -1,153 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009234</t>
-  </si>
-  <si>
-    <t>169108</t>
-  </si>
-  <si>
-    <t>004316</t>
-  </si>
-  <si>
-    <t>003413</t>
-  </si>
-  <si>
-    <t>004317</t>
-  </si>
-  <si>
-    <t>鹏华优质企业混合</t>
-  </si>
-  <si>
-    <t>东方红均衡优选两年定期开放混合</t>
-  </si>
-  <si>
-    <t>前海开源沪港深裕鑫灵活配置混合A</t>
-  </si>
-  <si>
-    <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-  </si>
-  <si>
-    <t>前海开源沪港深裕鑫灵活配置混合C</t>
-  </si>
-  <si>
-    <t>11.81</t>
-  </si>
-  <si>
-    <t>22.20</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>92.96</t>
-  </si>
-  <si>
-    <t>23.80</t>
-  </si>
-  <si>
-    <t>82.77</t>
-  </si>
-  <si>
-    <t>94.13</t>
-  </si>
-  <si>
-    <t>6.95</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>6.26</t>
-  </si>
-  <si>
-    <t>0.8208</t>
-  </si>
-  <si>
-    <t>0.2198</t>
-  </si>
-  <si>
-    <t>0.0200</t>
-  </si>
-  <si>
-    <t>0.0097</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,167 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.25</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.21</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,855 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4892</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.63</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.25</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.21</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2199,13 +2286,643 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2821,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,17 +2833,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2852,14 +2873,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.53</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2868,14 +2911,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.63</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2884,14 +2949,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.25</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2900,14 +2987,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.21</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2916,13 +3025,1113 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009234</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华优质企业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8208</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>169108</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红均衡优选两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+      <c r="D5" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011333</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华品质优选混合A</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.28</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>55.66</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0481</t>
+          <t>1.0143</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011334</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华品质优选混合C</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>55.66</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>1.0143</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.3562</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -867,36 +753,1020 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.3115</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +1801,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -971,26 +1841,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.44</t>
+          <t>44.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.96</t>
+          <t>88.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6784</t>
+          <t>1.7522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +1869,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.94</t>
+          <t>88.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5732</t>
+          <t>0.5651</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +1907,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011570</t>
+          <t>012057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+          <t>鹏华品质成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>57.93</t>
+          <t>81.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5664</t>
+          <t>0.5459</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1945,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011315</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.63</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2004</t>
+          <t>0.4514</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +1983,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011334</t>
+          <t>012027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华品质优选混合C</t>
+          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.96</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.4459</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1151,36 +2021,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011571</t>
+          <t>012028</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57.93</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.2250</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1189,36 +2059,414 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>011315</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.31</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0249</t>
+          <t>0.1591</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +3370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,7 +3391,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2183,26 +3431,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.36</t>
+          <t>54.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>73.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7522</t>
+          <t>2.6784</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2211,36 +3459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>75.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5651</t>
+          <t>0.5732</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2249,36 +3497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012057</t>
+          <t>011570</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华品质成长混合型证券投资基金A</t>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.87</t>
+          <t>57.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5459</t>
+          <t>0.5664</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2287,36 +3535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>011315</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>80.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4514</t>
+          <t>0.2004</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2325,36 +3573,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012027</t>
+          <t>011334</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
+          <t>鹏华品质优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>73.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4459</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2363,36 +3611,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012028</t>
+          <t>011571</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>57.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2250</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2401,414 +3649,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011315</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>80.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1591</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011334</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华品质优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011694</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0933</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011695</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012058</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华品质成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2843,7 +3713,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2873,36 +3743,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>011333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>鹏华品质优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>66.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0143</t>
+          <t>2.0481</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2911,36 +3781,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>011334</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>鹏华品质优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0143</t>
+          <t>0.1279</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2949,36 +3819,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3562</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2987,1020 +3857,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3115</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2821</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011856</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2248</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008404</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2005</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008405</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1722</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012028</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大保德信安阳一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1694</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012027</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信安阳一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011694</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1176</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011017</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏扬景明一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>22.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011651</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.79</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011695</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010752</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009130</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011652</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>013224</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011857</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009131</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>015390</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>83.79</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4014,128 +3900,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.71</v>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.53</v>
+          <t>169108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红均衡优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.63</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.25</v>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.09</v>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>4.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4.53</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5.63</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>4.25</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.21</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -583,6 +600,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2474,7 +3153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3364,7 +4043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3686,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3894,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02238-广汽集团.xlsx
+++ b/数据整理/stocks/港股/02238-广汽集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>4.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>4.53</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>5.63</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.21</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -600,6 +617,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2453,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3153,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4043,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4365,7 +4664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4573,7 +4872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
